--- a/data/gene_set.xlsx
+++ b/data/gene_set.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\INFIMM_TB\Presentations\TUHU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B291968\projects\INFIMM-TB-PAXGENE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9921158F-2F67-4984-86D1-540995D9E08B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6753553B-9699-4E08-96C7-5762EFA6FA02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{DC076755-D649-4CC9-ACDF-57630772B9EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$C$20</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>GOBP_NEGATIVE_REGULATION_OF_VIRAL_PROCESS</t>
   </si>
@@ -33,9 +36,6 @@
     <t>GOBP_TYPE_I_INTERFERON_PRODUCTION</t>
   </si>
   <si>
-    <t>GOBP_RESPONSE_TO_VIRUS</t>
-  </si>
-  <si>
     <t>GOBP_RESPONSE_TO_TYPE_I_INTERFERON</t>
   </si>
   <si>
@@ -60,12 +60,6 @@
     <t>GOBP_PATTERN_RECOGNITION_RECEPTOR_SIGNALING_PATHWAY</t>
   </si>
   <si>
-    <t>GOBP_CYTOPLASMIC_PATTERN_RECOGNITION_RECEPTOR_SIGNALING_PATHWAY_IN_RESPONSE_TO_VIRUS</t>
-  </si>
-  <si>
-    <t>GOBP_REGULATION_OF_TYPE_I_INTERFERON_MEDIATED_SIGNALING_PATHWAY</t>
-  </si>
-  <si>
     <t>GOBP_MACROPHAGE_ACTIVATION</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
     <t>GOBP_CYTOPLASMIC_PATTERN_RECOGNITION_RECEPTOR_SIGNALING_PATHWAY</t>
   </si>
   <si>
-    <t>GOBP_RIG_I_SIGNALING_PATHWAY</t>
-  </si>
-  <si>
     <t>GOBP_INTERLEUKIN_6_PRODUCTION</t>
   </si>
   <si>
@@ -126,12 +117,6 @@
     <t>TNF superfamily cytokine production</t>
   </si>
   <si>
-    <t>RIG-I signaling pathway</t>
-  </si>
-  <si>
-    <t>Response to virus</t>
-  </si>
-  <si>
     <t>Response to type I INF</t>
   </si>
   <si>
@@ -144,9 +129,6 @@
     <t>Response to cytokine</t>
   </si>
   <si>
-    <t>Regulation of type I INF mediated signaling pathway</t>
-  </si>
-  <si>
     <t>Positive regulation of type I INF production</t>
   </si>
   <si>
@@ -174,9 +156,6 @@
     <t>Cytoplasmic pattern recognition receptor signaling pathway</t>
   </si>
   <si>
-    <t>Cytoplasmic pattern recognition receptor signaling pathway in response to virus</t>
-  </si>
-  <si>
     <t>Cytokine mediated signaling pathway</t>
   </si>
   <si>
@@ -187,6 +166,18 @@
   </si>
   <si>
     <t>pathway_display</t>
+  </si>
+  <si>
+    <t>theme</t>
+  </si>
+  <si>
+    <t>Type I IFN</t>
+  </si>
+  <si>
+    <t>Cytokine</t>
+  </si>
+  <si>
+    <t>Innate response</t>
   </si>
 </sst>
 </file>
@@ -539,237 +530,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDA74DA-CAEC-464A-A663-98296B8EDC37}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="102.28515625" customWidth="1"/>
     <col min="2" max="2" width="72.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B23" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
+      <c r="C23" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A23">
-    <sortCondition ref="A2:A23"/>
+  <sortState ref="A2:C20">
+    <sortCondition descending="1" ref="C2:C20"/>
+    <sortCondition ref="A2:A20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/gene_set.xlsx
+++ b/data/gene_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B291968\projects\INFIMM-TB-PAXGENE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6753553B-9699-4E08-96C7-5762EFA6FA02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868DB1EE-D948-4B94-A95D-71D02D55F382}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{DC076755-D649-4CC9-ACDF-57630772B9EC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$C$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$C$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>GOBP_NEGATIVE_REGULATION_OF_VIRAL_PROCESS</t>
   </si>
@@ -39,9 +39,6 @@
     <t>GOBP_RESPONSE_TO_TYPE_I_INTERFERON</t>
   </si>
   <si>
-    <t>GOBP_POSITIVE_REGULATION_OF_TYPE_I_INTERFERON_PRODUCTION</t>
-  </si>
-  <si>
     <t>GOBP_INTERFERON_BETA_PRODUCTION</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>GOBP_INNATE_IMMUNE_RESPONSE</t>
   </si>
   <si>
-    <t>GOBP_POSITIVE_REGULATION_OF_INTERFERON_BETA_PRODUCTION</t>
-  </si>
-  <si>
     <t>GOBP_TUMOR_NECROSIS_FACTOR_SUPERFAMILY_CYTOKINE_PRODUCTION</t>
   </si>
   <si>
@@ -63,9 +57,6 @@
     <t>GOBP_MACROPHAGE_ACTIVATION</t>
   </si>
   <si>
-    <t>GOBP_RESPONSE_TO_CYTOKINE</t>
-  </si>
-  <si>
     <t>GOBP_INFLAMMATORY_RESPONSE</t>
   </si>
   <si>
@@ -126,15 +117,6 @@
     <t>Response to INF alpha</t>
   </si>
   <si>
-    <t>Response to cytokine</t>
-  </si>
-  <si>
-    <t>Positive regulation of type I INF production</t>
-  </si>
-  <si>
-    <t>Positive regulation of INF beta production</t>
-  </si>
-  <si>
     <t>Pattern recognition receptor signaling pathway</t>
   </si>
   <si>
@@ -178,6 +160,12 @@
   </si>
   <si>
     <t>Innate response</t>
+  </si>
+  <si>
+    <t>GOBP_INTERFERON_ALPHA_PRODUCTION</t>
+  </si>
+  <si>
+    <t>INF alpha production</t>
   </si>
 </sst>
 </file>
@@ -530,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDA74DA-CAEC-464A-A663-98296B8EDC37}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,262 +533,241 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
         <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C20">
-    <sortCondition descending="1" ref="C2:C20"/>
-    <sortCondition ref="A2:A20"/>
+  <sortState ref="A4:C21">
+    <sortCondition descending="1" ref="C4:C21"/>
+    <sortCondition ref="A4:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/gene_set.xlsx
+++ b/data/gene_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B291968\projects\INFIMM-TB-PAXGENE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868DB1EE-D948-4B94-A95D-71D02D55F382}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04DA995-4940-439B-90B1-37864C6ED6AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{DC076755-D649-4CC9-ACDF-57630772B9EC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$C$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$C$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>GOBP_NEGATIVE_REGULATION_OF_VIRAL_PROCESS</t>
   </si>
@@ -81,12 +81,6 @@
     <t>GOBP_INTERLEUKIN_10_PRODUCTION</t>
   </si>
   <si>
-    <t>GOBP_INTERLEUKIN_18_MEDIATED_SIGNALING_PATHWAY</t>
-  </si>
-  <si>
-    <t>GOBP_INTERLEUKIN_27_MEDIATED_SIGNALING_PATHWAY</t>
-  </si>
-  <si>
     <t>IL-1 production</t>
   </si>
   <si>
@@ -94,12 +88,6 @@
   </si>
   <si>
     <t>IL-10 production</t>
-  </si>
-  <si>
-    <t>IL-18 mediated signaling pathway</t>
-  </si>
-  <si>
-    <t>IL-27 mediated signaling pathway</t>
   </si>
   <si>
     <t>Type-I INF production</t>
@@ -518,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDA74DA-CAEC-464A-A663-98296B8EDC37}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A13" sqref="A13:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,13 +521,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -547,10 +535,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -558,10 +546,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -569,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -580,10 +568,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -591,10 +579,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -602,10 +590,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -613,10 +601,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -624,10 +612,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -635,10 +623,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -646,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -657,115 +645,93 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:C21">
-    <sortCondition descending="1" ref="C4:C21"/>
-    <sortCondition ref="A4:A21"/>
+  <sortState ref="A4:C19">
+    <sortCondition descending="1" ref="C4:C19"/>
+    <sortCondition ref="A4:A19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/gene_set.xlsx
+++ b/data/gene_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B291968\projects\INFIMM-TB-PAXGENE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04DA995-4940-439B-90B1-37864C6ED6AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0333987C-EA83-47FA-839F-37A6A02553C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{DC076755-D649-4CC9-ACDF-57630772B9EC}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD14"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,10 +675,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -686,10 +686,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
@@ -708,10 +708,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
@@ -719,10 +719,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>

--- a/data/gene_set.xlsx
+++ b/data/gene_set.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B291968\projects\INFIMM-TB-PAXGENE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0333987C-EA83-47FA-839F-37A6A02553C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3141D87D-5224-4E3B-A739-D614CD1670D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{DC076755-D649-4CC9-ACDF-57630772B9EC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$C$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$C$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>GOBP_NEGATIVE_REGULATION_OF_VIRAL_PROCESS</t>
   </si>
@@ -69,9 +69,6 @@
     <t>GOBP_RESPONSE_TO_INTERFERON_ALPHA</t>
   </si>
   <si>
-    <t>GOBP_CYTOPLASMIC_PATTERN_RECOGNITION_RECEPTOR_SIGNALING_PATHWAY</t>
-  </si>
-  <si>
     <t>GOBP_INTERLEUKIN_6_PRODUCTION</t>
   </si>
   <si>
@@ -90,21 +87,9 @@
     <t>IL-10 production</t>
   </si>
   <si>
-    <t>Type-I INF production</t>
-  </si>
-  <si>
     <t>TNF superfamily cytokine production</t>
   </si>
   <si>
-    <t>Response to type I INF</t>
-  </si>
-  <si>
-    <t>Response to INF beta</t>
-  </si>
-  <si>
-    <t>Response to INF alpha</t>
-  </si>
-  <si>
     <t>Pattern recognition receptor signaling pathway</t>
   </si>
   <si>
@@ -114,46 +99,55 @@
     <t>Macrophage activation</t>
   </si>
   <si>
-    <t>INF beta production</t>
-  </si>
-  <si>
     <t>Innate immune response</t>
   </si>
   <si>
+    <t>Cytokine mediated signaling pathway</t>
+  </si>
+  <si>
+    <t>GO_term</t>
+  </si>
+  <si>
+    <t>pathway_display</t>
+  </si>
+  <si>
+    <t>theme</t>
+  </si>
+  <si>
+    <t>Type I IFN</t>
+  </si>
+  <si>
+    <t>Cytokine</t>
+  </si>
+  <si>
+    <t>Innate response</t>
+  </si>
+  <si>
+    <t>GOBP_INTERFERON_ALPHA_PRODUCTION</t>
+  </si>
+  <si>
+    <t>Response to IFN beta</t>
+  </si>
+  <si>
+    <t>Cellular response to IFN gamma</t>
+  </si>
+  <si>
+    <t>Type-I IFN production</t>
+  </si>
+  <si>
+    <t>IFN beta production</t>
+  </si>
+  <si>
+    <t>IFN alpha production</t>
+  </si>
+  <si>
+    <t>Response to type I IFN</t>
+  </si>
+  <si>
+    <t>Response to IFN alpha</t>
+  </si>
+  <si>
     <t>Inflammatory response</t>
-  </si>
-  <si>
-    <t>Cytoplasmic pattern recognition receptor signaling pathway</t>
-  </si>
-  <si>
-    <t>Cytokine mediated signaling pathway</t>
-  </si>
-  <si>
-    <t>Cellular response to INF gamma</t>
-  </si>
-  <si>
-    <t>GO_term</t>
-  </si>
-  <si>
-    <t>pathway_display</t>
-  </si>
-  <si>
-    <t>theme</t>
-  </si>
-  <si>
-    <t>Type I IFN</t>
-  </si>
-  <si>
-    <t>Cytokine</t>
-  </si>
-  <si>
-    <t>Innate response</t>
-  </si>
-  <si>
-    <t>GOBP_INTERFERON_ALPHA_PRODUCTION</t>
-  </si>
-  <si>
-    <t>INF alpha production</t>
   </si>
 </sst>
 </file>
@@ -506,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDA74DA-CAEC-464A-A663-98296B8EDC37}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B18" sqref="B1:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,13 +515,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -535,10 +529,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -546,10 +540,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -557,181 +551,170 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
         <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:C19">
-    <sortCondition descending="1" ref="C4:C19"/>
-    <sortCondition ref="A4:A19"/>
+  <sortState ref="A4:C18">
+    <sortCondition descending="1" ref="C4:C18"/>
+    <sortCondition ref="A4:A18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/gene_set.xlsx
+++ b/data/gene_set.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B291968\projects\INFIMM-TB-PAXGENE\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/B291968/Projects/INFIMM-TB-PAXGENE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3141D87D-5224-4E3B-A739-D614CD1670D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB356495-D2E6-2B47-8C81-E4A7B751F094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{DC076755-D649-4CC9-ACDF-57630772B9EC}"/>
+    <workbookView xWindow="4680" yWindow="500" windowWidth="28800" windowHeight="12220" xr2:uid="{DC076755-D649-4CC9-ACDF-57630772B9EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,9 +183,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -204,9 +203,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -244,7 +243,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -350,7 +349,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -492,7 +491,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -503,17 +502,17 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B1:B18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="102.28515625" customWidth="1"/>
-    <col min="2" max="2" width="72.28515625" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="1" max="1" width="102.33203125" customWidth="1"/>
+    <col min="2" max="2" width="72.33203125" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -524,8 +523,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -535,8 +534,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
@@ -546,8 +545,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
@@ -557,8 +556,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
@@ -568,8 +567,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -579,8 +578,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -590,8 +589,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
@@ -601,8 +600,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
@@ -612,8 +611,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
@@ -623,8 +622,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
@@ -634,8 +633,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12" t="s">
@@ -645,8 +644,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>1</v>
       </c>
       <c r="B13" t="s">
@@ -656,8 +655,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" t="s">
@@ -667,8 +666,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>31</v>
       </c>
       <c r="B15" t="s">
@@ -678,8 +677,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16" t="s">
@@ -689,8 +688,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>11</v>
       </c>
       <c r="B17" t="s">
@@ -700,8 +699,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18" t="s">
@@ -712,7 +711,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:C18">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C18">
     <sortCondition descending="1" ref="C4:C18"/>
     <sortCondition ref="A4:A18"/>
   </sortState>
